--- a/src/Server and Website/Data Analysis/Deepak Analysis/DEEP_YOGA.xlsx
+++ b/src/Server and Website/Data Analysis/Deepak Analysis/DEEP_YOGA.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\IOT-based-Health-Monitoring-System\src\Server and Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\IOT-based-Health-Monitoring-System\src\Server and Website\Data Analysis\Deepak Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="patient data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -730,13 +730,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,9 +753,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1">
         <v>71.540000000000006</v>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>96</v>
       </c>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>97</v>
       </c>
@@ -804,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>97</v>
       </c>
@@ -821,9 +821,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1">
         <v>72.95</v>
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>97</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>98</v>
       </c>
@@ -872,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>98</v>
       </c>
@@ -889,7 +889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>97</v>
       </c>
@@ -906,9 +906,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1">
         <v>70.34</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>98</v>
       </c>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>98</v>
       </c>
@@ -957,9 +957,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>78.05</v>
@@ -974,9 +974,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
         <v>64.37</v>
@@ -991,9 +991,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1">
         <v>70.95</v>
@@ -1008,7 +1008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>97</v>
       </c>
@@ -1025,9 +1025,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1">
         <v>74.91</v>
@@ -1042,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>97</v>
       </c>
@@ -1059,9 +1059,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1">
         <v>74.010000000000005</v>
@@ -1076,9 +1076,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>72.61</v>
@@ -1093,9 +1093,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1">
         <v>79.81</v>
@@ -1110,9 +1110,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1">
         <v>77.34</v>
@@ -1127,9 +1127,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1">
         <v>76.92</v>
@@ -1144,9 +1144,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1">
         <v>72.459999999999994</v>
@@ -1161,9 +1161,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1">
         <v>72.98</v>
@@ -1178,7 +1178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>97</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>97</v>
       </c>
@@ -1212,9 +1212,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
         <v>70.16</v>
@@ -1229,9 +1229,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1">
         <v>77.47</v>
@@ -1246,9 +1246,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1">
         <v>83.69</v>
@@ -1263,7 +1263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>96</v>
       </c>
@@ -1280,9 +1280,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
         <v>72.53</v>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>96</v>
       </c>
@@ -1314,9 +1314,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1">
         <v>73.13</v>
@@ -1331,9 +1331,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
         <v>74.47</v>
@@ -1348,9 +1348,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1">
         <v>75.930000000000007</v>
@@ -1365,9 +1365,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1">
         <v>75.319999999999993</v>
@@ -1382,9 +1382,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1">
         <v>79.040000000000006</v>
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>97</v>
       </c>
@@ -1416,9 +1416,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1">
         <v>73.349999999999994</v>
@@ -1433,9 +1433,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1">
         <v>77.48</v>
@@ -1450,9 +1450,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1">
         <v>77.260000000000005</v>
@@ -1467,9 +1467,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1">
         <v>78.56</v>
@@ -1484,9 +1484,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1">
         <v>78.819999999999993</v>
@@ -1501,9 +1501,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1">
         <v>80.95</v>
@@ -1518,9 +1518,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1">
         <v>82.27</v>
@@ -1535,9 +1535,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="1">
         <v>89.86</v>
@@ -1552,7 +1552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>96</v>
       </c>
@@ -1569,9 +1569,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1">
         <v>82.66</v>
@@ -1586,9 +1586,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1">
         <v>83.99</v>
@@ -1603,7 +1603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>96</v>
       </c>
@@ -1620,9 +1620,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1">
         <v>86.26</v>
@@ -1637,7 +1637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>97</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>96</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>97</v>
       </c>
@@ -1705,9 +1705,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="1">
         <v>78.790000000000006</v>
@@ -1722,7 +1722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>97</v>
       </c>
@@ -1739,9 +1739,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B60" s="1">
         <v>87.05</v>
@@ -1756,7 +1756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>98</v>
       </c>
@@ -1773,9 +1773,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1">
         <v>84.64</v>
@@ -1790,9 +1790,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="1">
         <v>82.2</v>
@@ -1807,9 +1807,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1">
         <v>83.62</v>
@@ -1824,9 +1824,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1">
         <v>85.39</v>
@@ -1841,7 +1841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>97</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>96</v>
       </c>
@@ -1875,9 +1875,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
         <v>89.3</v>
@@ -1892,7 +1892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>99</v>
       </c>
@@ -1909,9 +1909,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1">
         <v>84.84</v>
@@ -1926,7 +1926,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>97</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>98</v>
       </c>
@@ -1960,9 +1960,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1">
         <v>87.5</v>
@@ -1977,7 +1977,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>96</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>97</v>
       </c>
@@ -2011,9 +2011,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="1">
         <v>84.05</v>
@@ -2028,7 +2028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>97</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>97</v>
       </c>
@@ -2062,9 +2062,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1">
         <v>87.97</v>
@@ -2079,7 +2079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>97</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>98</v>
       </c>
@@ -2113,9 +2113,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1">
         <v>80.72</v>
@@ -2130,7 +2130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>97</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>97</v>
       </c>
@@ -2164,9 +2164,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="1">
         <v>76.09</v>
@@ -2181,7 +2181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>96</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>97</v>
       </c>
@@ -2215,9 +2215,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1">
         <v>72.849999999999994</v>
@@ -2232,7 +2232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>97</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>97</v>
       </c>
@@ -2266,9 +2266,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1">
         <v>70.040000000000006</v>
@@ -2283,7 +2283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>97</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>96</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>97</v>
       </c>
@@ -2334,9 +2334,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1">
         <v>74.62</v>
@@ -2351,9 +2351,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1">
         <v>75.319999999999993</v>
@@ -2368,7 +2368,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -2385,9 +2385,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1">
         <v>71.150000000000006</v>
@@ -2402,9 +2402,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>75.97</v>
@@ -2419,7 +2419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>97</v>
       </c>
@@ -2470,9 +2470,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="1">
         <v>70.94</v>
@@ -2487,7 +2487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>97</v>
       </c>
@@ -2504,9 +2504,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1">
         <v>71.239999999999995</v>
@@ -2521,7 +2521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>97</v>
       </c>
@@ -2538,9 +2538,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B107" s="1">
         <v>78.739999999999995</v>
@@ -2555,7 +2555,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>98</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>97</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>96</v>
       </c>
@@ -2606,9 +2606,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B111" s="1">
         <v>75</v>
@@ -2623,9 +2623,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1">
         <v>73.37</v>
@@ -2640,9 +2640,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1">
         <v>74.69</v>
@@ -2657,7 +2657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>98</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>97</v>
       </c>
@@ -2691,9 +2691,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B116" s="1">
         <v>76.599999999999994</v>
@@ -2708,7 +2708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>97</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>98</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>97</v>
       </c>
